--- a/pars.xlsx
+++ b/pars.xlsx
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -366,7 +366,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/pars.xlsx
+++ b/pars.xlsx
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -366,7 +366,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -374,7 +374,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
